--- a/ssdsoftware.xlsx
+++ b/ssdsoftware.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/Analyses/ssdsoftware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D85D38-2E8B-F34D-8ED0-0E028AF39A65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F215F1A7-E1D0-734F-AF07-4DB272CD5C50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="8000" windowWidth="51200" windowHeight="22320" xr2:uid="{A5D02324-82C3-E84E-9F7D-DBBBFFF133FC}"/>
+    <workbookView xWindow="10100" yWindow="460" windowWidth="51200" windowHeight="22320" xr2:uid="{A5D02324-82C3-E84E-9F7D-DBBBFFF133FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="102">
   <si>
     <t>Reference</t>
   </si>
@@ -53,24 +53,12 @@
     <t>MOSAIC</t>
   </si>
   <si>
-    <t>ssdtools</t>
-  </si>
-  <si>
-    <t>Thorley and Schwarz  (2018)</t>
-  </si>
-  <si>
-    <t>Dalgarno (2018)</t>
-  </si>
-  <si>
     <t>Argentina</t>
   </si>
   <si>
     <t>SSD Toolbox</t>
   </si>
   <si>
-    <t>Center for Computational Toxicology and Exposure (2020).</t>
-  </si>
-  <si>
     <t>Software</t>
   </si>
   <si>
@@ -86,12 +74,6 @@
     <t>https://github.com/bcgov/ssdtools</t>
   </si>
   <si>
-    <t>https://github.com/bcgov/shinyssdtools</t>
-  </si>
-  <si>
-    <t>shinyssdtools</t>
-  </si>
-  <si>
     <t>GUI</t>
   </si>
   <si>
@@ -134,9 +116,6 @@
     <t>R</t>
   </si>
   <si>
-    <t>R, C++</t>
-  </si>
-  <si>
     <t>R, Shiny</t>
   </si>
   <si>
@@ -146,9 +125,6 @@
     <t>D'Andrea and Brodeur (2019)</t>
   </si>
   <si>
-    <t>"</t>
-  </si>
-  <si>
     <t>Code</t>
   </si>
   <si>
@@ -188,9 +164,6 @@
     <t>Charles S, Veber P, Delignette-Muller ML (2017)</t>
   </si>
   <si>
-    <t>https://github.com/bcgov/shinyssdtools/</t>
-  </si>
-  <si>
     <t>ML</t>
   </si>
   <si>
@@ -269,9 +242,6 @@
     <t>hSSD</t>
   </si>
   <si>
-    <t>Matlab</t>
-  </si>
-  <si>
     <t>England</t>
   </si>
   <si>
@@ -305,9 +275,6 @@
     <t>3.0</t>
   </si>
   <si>
-    <t>extreme value</t>
-  </si>
-  <si>
     <t>Excel</t>
   </si>
   <si>
@@ -323,12 +290,6 @@
     <t>US</t>
   </si>
   <si>
-    <t>0.0.1</t>
-  </si>
-  <si>
-    <t>0.3.0</t>
-  </si>
-  <si>
     <t>bootstrap, profile?</t>
   </si>
   <si>
@@ -347,9 +308,6 @@
     <t>BY</t>
   </si>
   <si>
-    <t>MM, CL, ML, BY</t>
-  </si>
-  <si>
     <t>log-triangular</t>
   </si>
   <si>
@@ -357,6 +315,30 @@
   </si>
   <si>
     <t>species</t>
+  </si>
+  <si>
+    <t>(shiny)ssdtools</t>
+  </si>
+  <si>
+    <t>(0.0.1)0.3.0</t>
+  </si>
+  <si>
+    <t>Thorley and Schwarz  (2018) and Dalgarno (2018)</t>
+  </si>
+  <si>
+    <t>Etterson, M. 2020. Technical Manual: SSD Toolbox Version 1.0. US Environmental Protection Agency, Duluth, MN.</t>
+  </si>
+  <si>
+    <t>Etterson (2020).</t>
+  </si>
+  <si>
+    <t>MATLAB</t>
+  </si>
+  <si>
+    <t>Excel, Visual Basic</t>
+  </si>
+  <si>
+    <t>MM, ML, BY</t>
   </si>
 </sst>
 </file>
@@ -833,52 +815,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9472FD1D-8C7D-E74F-AE16-2580639441EF}">
-  <dimension ref="A1:AE15"/>
+  <dimension ref="A1:AD15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="35.5" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="16" style="14" customWidth="1"/>
+    <col min="1" max="1" width="19" style="14" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17" style="2" customWidth="1"/>
     <col min="4" max="5" width="10.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.1640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.1640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" style="1" customWidth="1"/>
-    <col min="14" max="15" width="10.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.83203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12" style="1" customWidth="1"/>
-    <col min="18" max="18" width="26.6640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="14.6640625" style="1" customWidth="1"/>
-    <col min="20" max="22" width="13.1640625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="19.1640625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="7.33203125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="9.1640625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="38.6640625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="35" style="1" customWidth="1"/>
-    <col min="28" max="28" width="47.33203125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="14.5" style="1" customWidth="1"/>
-    <col min="30" max="30" width="50" style="1" customWidth="1"/>
-    <col min="31" max="16384" width="35.5" style="1"/>
+    <col min="11" max="11" width="12.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" style="1" customWidth="1"/>
+    <col min="13" max="14" width="10.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.83203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12" style="1" customWidth="1"/>
+    <col min="17" max="17" width="26.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="17.5" style="1" customWidth="1"/>
+    <col min="20" max="21" width="13.1640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="19.1640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="7.33203125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="9.1640625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="38.6640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="35" style="1" customWidth="1"/>
+    <col min="27" max="27" width="47.33203125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5" style="1" customWidth="1"/>
+    <col min="29" max="29" width="50" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="35.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="31" customHeight="1">
+    <row r="1" spans="1:30" ht="31" customHeight="1">
       <c r="A1" s="4"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="27" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E1" s="27"/>
       <c r="F1" s="27"/>
@@ -889,7 +871,7 @@
       <c r="K1" s="27"/>
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
+      <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -905,121 +887,117 @@
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
       <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
     </row>
-    <row r="2" spans="1:31" s="3" customFormat="1" ht="31" customHeight="1">
+    <row r="2" spans="1:30" s="3" customFormat="1" ht="31" customHeight="1">
       <c r="A2" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="Q2" s="17" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="S2" s="17" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="T2" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="U2" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="V2" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="W2" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="X2" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y2" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z2" s="17" t="s">
-        <v>38</v>
-      </c>
       <c r="AA2" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB2" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="AB2" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC2" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD2" s="18" t="s">
+      <c r="AC2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="AE2" s="3" t="s">
-        <v>88</v>
+      <c r="AD2" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="31" customHeight="1">
+    <row r="3" spans="1:30" ht="31" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -1027,61 +1005,54 @@
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
-      <c r="O3" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="S3" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>69</v>
-      </c>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
       <c r="V3" s="11" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="W3" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="X3" s="11" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC3" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD3" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE3" s="14" t="s">
-        <v>70</v>
+      <c r="AA3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD3" s="14" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="31" customHeight="1">
+    <row r="4" spans="1:30" ht="31" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="24"/>
+        <v>64</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>60</v>
+      </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -1094,42 +1065,43 @@
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="S4" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="T4" s="20" t="s">
-        <v>76</v>
-      </c>
+      <c r="Q4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="S4" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="T4" s="11"/>
       <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
+      <c r="V4" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="W4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="X4" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
+      <c r="AA4" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="AB4" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="31" customHeight="1">
+    <row r="5" spans="1:30" ht="31" customHeight="1">
       <c r="A5" s="13" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="24" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -1137,70 +1109,69 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
+      <c r="O5" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="P5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="S5" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="T5" s="20" t="s">
-        <v>78</v>
+        <v>73</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="R5" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="U5" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="V5" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="W5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="X5" s="11" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
+      <c r="AA5" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="AB5" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC5" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD5" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE5" s="2" t="s">
-        <v>87</v>
+        <v>69</v>
+      </c>
+      <c r="AC5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="31" customHeight="1">
+    <row r="6" spans="1:30" ht="31" customHeight="1">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="24" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -1211,129 +1182,127 @@
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S6" s="23" t="s">
+      <c r="O6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R6" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="T6" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="U6" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="V6" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="W6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD6" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="31" customHeight="1">
+      <c r="A7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="T6" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="U6" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="V6" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="W6" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="X6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC6" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD6" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE6" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" ht="31" customHeight="1">
-      <c r="A7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>52</v>
-      </c>
       <c r="D7" s="12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
+      <c r="N7" s="12"/>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="S7" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>34</v>
+      <c r="Q7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="R7" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="U7" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="V7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="W7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="X7" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA7" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="W7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="AB7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD7" s="6" t="s">
-        <v>36</v>
+        <v>6</v>
+      </c>
+      <c r="AC7" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="31" customHeight="1">
+    <row r="8" spans="1:30" ht="31" customHeight="1">
       <c r="A8" s="13" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="25" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
@@ -1344,345 +1313,298 @@
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
+      <c r="N8" s="12"/>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="S8" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>91</v>
+      <c r="Q8" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="R8" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="U8" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="V8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="W8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="X8" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="W8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="6"/>
     </row>
-    <row r="9" spans="1:31" ht="31" customHeight="1">
+    <row r="9" spans="1:30" ht="31" customHeight="1">
       <c r="A9" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="25" t="s">
-        <v>102</v>
-      </c>
       <c r="D9" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
-      <c r="K9" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="S9" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>91</v>
+      <c r="Q9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="R9" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="U9" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="V9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="W9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="X9" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="W9" s="11"/>
+      <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD9" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>93</v>
+      <c r="AB9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC9" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="31" customHeight="1">
+    <row r="10" spans="1:30" ht="31" customHeight="1">
       <c r="A10" s="13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="K10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
+      <c r="N10" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="O10" s="12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q10" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="S10" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="R10" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="T10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="U10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="V10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="W10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC10" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="T10" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="U10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="V10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="W10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="X10" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4" t="s">
+      <c r="AD10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="31" customHeight="1">
+      <c r="A11" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="AC10" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AD10" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" ht="31" customHeight="1">
-      <c r="A11" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>97</v>
-      </c>
       <c r="C11" s="24" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="12"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
+      <c r="L11" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="M11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="R11" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="S11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="O11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="P11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="S11" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>33</v>
+      <c r="T11" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="U11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="V11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="W11" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="V11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="W11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="Z11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA11" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="AA11" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="AB11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD11" s="10" t="s">
-        <v>7</v>
+        <v>48</v>
+      </c>
+      <c r="AC11" s="10" t="s">
+        <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="31" customHeight="1">
-      <c r="A12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>37</v>
-      </c>
+    <row r="12" spans="1:30" ht="31" customHeight="1">
+      <c r="A12" s="13"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
       <c r="H12" s="11"/>
       <c r="I12" s="12"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="O12" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P12" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="S12" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="T12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="U12" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="V12" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="W12" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="X12" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC12" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD12" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="6"/>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:30">
       <c r="B15" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D1:N1"/>
+    <mergeCell ref="D1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
